--- a/KẾ TOÁN - THÁI HẰNG/Book1.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Book1.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Kho công ty</t>
   </si>
@@ -163,6 +164,45 @@
   </si>
   <si>
     <t>Nano Milk CANXI</t>
+  </si>
+  <si>
+    <t>Trả công ty</t>
+  </si>
+  <si>
+    <t>Nhập thêm hàng</t>
+  </si>
+  <si>
+    <t>Hàng sau khi đổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tồn kho </t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Đổi hàng</t>
+  </si>
+  <si>
+    <t>Doanh số trả</t>
+  </si>
+  <si>
+    <t>Doanh số nhập</t>
+  </si>
+  <si>
+    <t>Phí đổi hàng 10%</t>
+  </si>
+  <si>
+    <t>Chênh lệch =(trả-nhập)*38%</t>
+  </si>
+  <si>
+    <t>Đại lý phải thanh toán</t>
+  </si>
+  <si>
+    <t>ĐẠI LÝ CƯỜNG OANH HẠ HÒA - PHÚ THỌ</t>
   </si>
 </sst>
 </file>
@@ -171,9 +211,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,8 +239,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +272,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -348,118 +407,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -766,60 +967,60 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="53"/>
+      <c r="L6" s="54" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -831,18 +1032,18 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>B8+C8</f>
         <v>8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>225000*24</f>
         <v>5400000</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f>E8*F8</f>
         <v>27000000</v>
       </c>
@@ -850,14 +1051,14 @@
         <v>3</v>
       </c>
       <c r="I8" s="2">
-        <f>F8*H8</f>
+        <f t="shared" ref="I8:I20" si="0">F8*H8</f>
         <v>16200000</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>E8-H8</f>
         <v>2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f>J8*F8</f>
         <v>10800000</v>
       </c>
@@ -876,38 +1077,38 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" ref="D9:D20" si="0">B9+C9</f>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:D20" si="1">B9+C9</f>
         <v>30</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>18</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>455000*12</f>
         <v>5460000</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9:G20" si="1">E9*F9</f>
+      <c r="G9" s="5">
+        <f t="shared" ref="G9:G20" si="2">E9*F9</f>
         <v>98280000</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
       <c r="I9" s="2">
-        <f>F9*H9</f>
+        <f t="shared" si="0"/>
         <v>54600000</v>
       </c>
-      <c r="J9" s="7">
-        <f t="shared" ref="J9:J20" si="2">E9-H9</f>
+      <c r="J9" s="6">
+        <f t="shared" ref="J9:J20" si="3">E9-H9</f>
         <v>8</v>
       </c>
-      <c r="K9" s="8">
-        <f t="shared" ref="K9:K20" si="3">J9*F9</f>
+      <c r="K9" s="7">
+        <f t="shared" ref="K9:K20" si="4">J9*F9</f>
         <v>43680000</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:L20" si="4">D9-E9</f>
+        <f t="shared" ref="L9:L20" si="5">D9-E9</f>
         <v>12</v>
       </c>
     </row>
@@ -921,34 +1122,34 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>235000*24</f>
         <v>5640000</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
         <v>22560000</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
       </c>
       <c r="I10" s="2">
-        <f>F10*H10</f>
+        <f t="shared" si="0"/>
         <v>11280000</v>
       </c>
-      <c r="J10" s="7">
-        <f t="shared" si="2"/>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K10" s="8">
-        <f t="shared" si="3"/>
+      <c r="K10" s="7">
+        <f t="shared" si="4"/>
         <v>11280000</v>
       </c>
       <c r="L10" s="1"/>
@@ -961,35 +1162,35 @@
         <v>16</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>465000*12</f>
         <v>5580000</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
         <v>55800000</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
       </c>
       <c r="I11" s="2">
-        <f>F11*H11</f>
+        <f t="shared" si="0"/>
         <v>55800000</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8">
-        <f t="shared" si="3"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -999,24 +1200,24 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
         <f>245000*24</f>
         <v>5880000</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="2">
-        <f>F12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L12" s="1"/>
@@ -1031,38 +1232,38 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>475000*12</f>
         <v>5700000</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
         <v>17100000</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f>F13*H13</f>
+        <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K13" s="8">
-        <f t="shared" si="3"/>
+      <c r="K13" s="7">
+        <f t="shared" si="4"/>
         <v>5700000</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1072,24 +1273,24 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
         <f>255000*24</f>
         <v>6120000</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2">
-        <f>F14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L14" s="1"/>
@@ -1104,38 +1305,38 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="0"/>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>15</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>485000*12</f>
         <v>5820000</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="1"/>
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
         <v>87300000</v>
       </c>
       <c r="H15" s="1">
         <v>9</v>
       </c>
       <c r="I15" s="2">
-        <f>F15*H15</f>
+        <f t="shared" si="0"/>
         <v>52380000</v>
       </c>
-      <c r="J15" s="7">
-        <f t="shared" si="2"/>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K15" s="8">
-        <f t="shared" si="3"/>
+      <c r="K15" s="7">
+        <f t="shared" si="4"/>
         <v>34920000</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -1145,24 +1346,24 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
         <f>255000*24</f>
         <v>6120000</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="1"/>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="2">
-        <f>F16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L16" s="1"/>
@@ -1177,38 +1378,38 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
+      <c r="D17" s="3">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>485000*12</f>
         <v>5820000</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="1"/>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
         <v>23280000</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
       <c r="I17" s="2">
-        <f>F17*H17</f>
+        <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="3"/>
+      <c r="K17" s="7">
+        <f t="shared" si="4"/>
         <v>5820000</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -1220,34 +1421,34 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
+      <c r="D18" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f>550000*24</f>
         <v>13200000</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="1"/>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
         <v>39600000</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f>F18*H18</f>
+        <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" si="3"/>
+      <c r="K18" s="7">
+        <f t="shared" si="4"/>
         <v>13200000</v>
       </c>
       <c r="L18" s="1"/>
@@ -1260,38 +1461,38 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
+      <c r="D19" s="3">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f>455000*12</f>
         <v>5460000</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
         <v>10920000</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <f>F19*H19</f>
+        <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" si="2"/>
+      <c r="J19" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="3"/>
+      <c r="K19" s="7">
+        <f t="shared" si="4"/>
         <v>5460000</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="M19" t="s">
@@ -1308,85 +1509,85 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
+      <c r="D20" s="3">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f>455000*12</f>
         <v>5460000</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
         <v>21840000</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
       </c>
       <c r="I20" s="2">
-        <f>F20*H20</f>
+        <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="2"/>
+      <c r="J20" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K20" s="8">
-        <f t="shared" si="3"/>
+      <c r="K20" s="7">
+        <f t="shared" si="4"/>
         <v>5460000</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
+    <row r="21" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
         <f>SUM(B8:B19)</f>
         <v>82</v>
       </c>
-      <c r="C21" s="9">
-        <f t="shared" ref="C21:D21" si="5">SUM(C8:C19)</f>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:D21" si="6">SUM(C8:C19)</f>
         <v>13</v>
       </c>
-      <c r="D21" s="10">
-        <f t="shared" si="5"/>
+      <c r="D21" s="9">
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f>SUM(E8:E20)</f>
         <v>68</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12">
-        <f>SUM(G8:G20)</f>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11">
+        <f t="shared" ref="G21:L21" si="7">SUM(G8:G20)</f>
         <v>403680000</v>
       </c>
-      <c r="H21" s="9">
-        <f>SUM(H8:H20)</f>
+      <c r="H21" s="8">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="I21" s="13">
-        <f>SUM(I8:I20)</f>
+      <c r="I21" s="12">
+        <f t="shared" si="7"/>
         <v>267360000</v>
       </c>
-      <c r="J21" s="14">
-        <f>SUM(J8:J20)</f>
+      <c r="J21" s="13">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="K21" s="15">
-        <f>SUM(K8:K20)</f>
+      <c r="K21" s="14">
+        <f t="shared" si="7"/>
         <v>136320000</v>
       </c>
-      <c r="L21" s="9">
-        <f>SUM(L8:L20)</f>
+      <c r="L21" s="8">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="M21" s="16"/>
+      <c r="M21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1404,10 +1605,736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="27" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+    </row>
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>1</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="36">
+        <v>27</v>
+      </c>
+      <c r="F6" s="37">
+        <f>M6*E6</f>
+        <v>6075000</v>
+      </c>
+      <c r="G6" s="52">
+        <v>15</v>
+      </c>
+      <c r="H6" s="41">
+        <f t="shared" ref="H6:H18" si="0">G6*M6</f>
+        <v>3375000</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47">
+        <f t="shared" ref="J6:J18" si="1">I6*M6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <f>E6-G6+I6</f>
+        <v>12</v>
+      </c>
+      <c r="L6" s="29">
+        <f>K6*M6</f>
+        <v>2700000</v>
+      </c>
+      <c r="M6" s="28">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="36">
+        <v>24</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" ref="F7:F18" si="2">M7*E7</f>
+        <v>10920000</v>
+      </c>
+      <c r="G7" s="52"/>
+      <c r="H7" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
+        <v>12</v>
+      </c>
+      <c r="J7" s="47">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" ref="K7:K18" si="3">E7-G7+I7</f>
+        <v>36</v>
+      </c>
+      <c r="L7" s="29">
+        <f t="shared" ref="L7:L18" si="4">K7*M7</f>
+        <v>16380000</v>
+      </c>
+      <c r="M7" s="28">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="28">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="46">
+        <v>12</v>
+      </c>
+      <c r="J9" s="47">
+        <f t="shared" si="1"/>
+        <v>5580000</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L9" s="29">
+        <f t="shared" si="4"/>
+        <v>5580000</v>
+      </c>
+      <c r="M9" s="28">
+        <v>465000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="28">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="36">
+        <v>23</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="2"/>
+        <v>10925000</v>
+      </c>
+      <c r="G11" s="52">
+        <v>13</v>
+      </c>
+      <c r="H11" s="41">
+        <f t="shared" si="0"/>
+        <v>6175000</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="4"/>
+        <v>4750000</v>
+      </c>
+      <c r="M11" s="28">
+        <v>475000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="28">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="36">
+        <v>18</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="2"/>
+        <v>8730000</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="46">
+        <v>12</v>
+      </c>
+      <c r="J13" s="47">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" si="4"/>
+        <v>14550000</v>
+      </c>
+      <c r="M13" s="28">
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="52"/>
+      <c r="H14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="28">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
+        <v>12</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="1"/>
+        <v>5820000</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="4"/>
+        <v>5820000</v>
+      </c>
+      <c r="M15" s="28">
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="36">
+        <v>42</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="2"/>
+        <v>23100000</v>
+      </c>
+      <c r="G16" s="52">
+        <v>34</v>
+      </c>
+      <c r="H16" s="41">
+        <f t="shared" si="0"/>
+        <v>18700000</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="4"/>
+        <v>4400000</v>
+      </c>
+      <c r="M16" s="28">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="36">
+        <v>12</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" si="2"/>
+        <v>5460000</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="29">
+        <f t="shared" si="4"/>
+        <v>5460000</v>
+      </c>
+      <c r="M17" s="28">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="36">
+        <v>8</v>
+      </c>
+      <c r="F18" s="37">
+        <f t="shared" si="2"/>
+        <v>3640000</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="46">
+        <v>12</v>
+      </c>
+      <c r="J18" s="47">
+        <f t="shared" si="1"/>
+        <v>5460000</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="4"/>
+        <v>9100000</v>
+      </c>
+      <c r="M18" s="28">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="38">
+        <f t="shared" ref="E19:L19" si="5">SUM(E6:E18)</f>
+        <v>154</v>
+      </c>
+      <c r="F19" s="39">
+        <f t="shared" si="5"/>
+        <v>68850000</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" si="5"/>
+        <v>28250000</v>
+      </c>
+      <c r="I19" s="48">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="J19" s="49">
+        <f t="shared" si="5"/>
+        <v>28140000</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="L19" s="31">
+        <f t="shared" si="5"/>
+        <v>68740000</v>
+      </c>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="50">
+        <f>H19</f>
+        <v>28250000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="61"/>
+      <c r="C22" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="2">
+        <f>J19</f>
+        <v>28140000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="2">
+        <f>(F21-F22)*38%</f>
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="61"/>
+      <c r="C24" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="2">
+        <f>10%*F21</f>
+        <v>2825000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="51">
+        <f>F24-F23</f>
+        <v>2783200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1417,386 +2344,386 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="28">
+      <c r="F6" s="69">
         <v>1</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="21">
         <v>3</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="21">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="23">
         <v>225000</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="26">
         <f>K6*L6</f>
         <v>16200000</v>
       </c>
     </row>
     <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="28"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29" t="s">
+      <c r="F7" s="69"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="21">
         <v>10</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="21">
         <f>10*12</f>
         <v>120</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="23">
         <v>455000</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="26">
         <f t="shared" ref="M7:M18" si="0">K7*L7</f>
         <v>54600000</v>
       </c>
     </row>
     <row r="8" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="28"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="69"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="21">
         <f>2*24</f>
         <v>48</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="23">
         <v>235000</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="26">
         <f t="shared" si="0"/>
         <v>11280000</v>
       </c>
     </row>
     <row r="9" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="28"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29" t="s">
+      <c r="F9" s="69"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="21">
         <v>10</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="21">
         <f>10*12</f>
         <v>120</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="23">
         <v>465000</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="26">
         <f t="shared" si="0"/>
         <v>55800000</v>
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="28"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="31">
+      <c r="J10" s="21"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23">
         <v>245000</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="28"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="21">
         <v>2</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="21">
         <f>J11*12</f>
         <v>24</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="23">
         <v>475000</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="26">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="28"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="31">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="23">
         <v>255000</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="28"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29" t="s">
+      <c r="F13" s="69"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="21">
         <v>9</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="21">
         <f>J13*12</f>
         <v>108</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="23">
         <v>485000</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="26">
         <f t="shared" si="0"/>
         <v>52380000</v>
       </c>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="28"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="30" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="31">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="23">
         <v>255000</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="28"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29" t="s">
+      <c r="F15" s="69"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="21">
         <v>3</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="21">
         <f>J15*12</f>
         <v>36</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="23">
         <v>485000</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="26">
         <f t="shared" si="0"/>
         <v>17460000</v>
       </c>
     </row>
     <row r="16" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="29">
+      <c r="F16" s="21">
         <v>2</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="21">
         <v>2</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="21">
         <f>J16*24</f>
         <v>48</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="23">
         <v>550000</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="26">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
     </row>
     <row r="17" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="29">
+      <c r="F17" s="21">
         <v>3</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="21">
         <v>1</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="21">
         <f>J17*12</f>
         <v>12</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="23">
         <v>455000</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="26">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
     </row>
     <row r="18" spans="6:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="F18" s="29">
+      <c r="F18" s="21">
         <v>4</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="21">
         <v>3</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="21">
         <f>J18*12</f>
         <v>36</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="23">
         <v>455000</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="26">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="43">
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="81">
         <f>SUM(J6:J18)</f>
         <v>45</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="60">
         <f>SUM(K6:K18)</f>
         <v>624</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="46">
+      <c r="L19" s="69"/>
+      <c r="M19" s="71">
         <f>SUM(M6:M18)</f>
         <v>267360000</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="46"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="71"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="33"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/KẾ TOÁN - THÁI HẰNG/Book1.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Book1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>Kho công ty</t>
   </si>
@@ -449,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -569,6 +570,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,74 +600,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,7 +983,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -976,31 +992,31 @@
       <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54" t="s">
+      <c r="K6" s="55"/>
+      <c r="L6" s="56" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="19" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1036,7 @@
       <c r="K7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1607,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1629,55 +1645,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="61"/>
+      <c r="I4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="60" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="60"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="34" t="s">
         <v>50</v>
       </c>
@@ -1705,13 +1721,13 @@
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="A6" s="70">
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="71" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -1749,9 +1765,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="21" t="s">
         <v>34</v>
       </c>
@@ -1787,9 +1803,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1820,9 +1836,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
@@ -1856,9 +1872,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -1889,9 +1905,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="21" t="s">
         <v>34</v>
       </c>
@@ -1927,9 +1943,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -1960,9 +1976,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="21" t="s">
         <v>34</v>
       </c>
@@ -1998,9 +2014,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -2031,9 +2047,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
@@ -2197,12 +2213,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="38">
         <f t="shared" ref="E19:L19" si="5">SUM(E6:E18)</f>
         <v>154</v>
@@ -2238,62 +2254,62 @@
       <c r="M19" s="30"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="50">
         <f>H19</f>
         <v>28250000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="2">
         <f>J19</f>
         <v>28140000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="2">
         <f>(F21-F22)*38%</f>
         <v>41800</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="2">
         <f>10%*F21</f>
         <v>2825000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="51">
         <f>F24-F23</f>
         <v>2783200</v>
@@ -2301,6 +2317,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="G4:H4"/>
@@ -2317,12 +2339,6 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2334,7 +2350,7 @@
   <dimension ref="F4:M21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M18"/>
+      <selection activeCell="F4" sqref="F4:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2344,23 +2360,23 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="70" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="21" t="s">
@@ -2368,25 +2384,25 @@
       </c>
     </row>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="69">
+      <c r="F6" s="70">
         <v>1</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="71" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -2408,9 +2424,9 @@
       </c>
     </row>
     <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="69"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="21" t="s">
         <v>34</v>
       </c>
@@ -2430,9 +2446,9 @@
       </c>
     </row>
     <row r="8" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="69"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="70" t="s">
+      <c r="F8" s="70"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="71" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -2454,9 +2470,9 @@
       </c>
     </row>
     <row r="9" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="69"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
       </c>
@@ -2476,9 +2492,9 @@
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="69"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="70" t="s">
+      <c r="F10" s="70"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="71" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -2495,9 +2511,9 @@
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="69"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="21" t="s">
         <v>34</v>
       </c>
@@ -2517,9 +2533,9 @@
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="69"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="70" t="s">
+      <c r="F12" s="70"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="71" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -2536,9 +2552,9 @@
       </c>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="69"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="21" t="s">
         <v>34</v>
       </c>
@@ -2558,9 +2574,9 @@
       </c>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="69"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="70" t="s">
+      <c r="F14" s="70"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="71" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="21" t="s">
@@ -2577,9 +2593,9 @@
       </c>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="69"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -2683,43 +2699,43 @@
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="81">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="83">
         <f>SUM(J6:J18)</f>
         <v>45</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="62">
         <f>SUM(K6:K18)</f>
         <v>624</v>
       </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="71">
+      <c r="L19" s="70"/>
+      <c r="M19" s="85">
         <f>SUM(M6:M18)</f>
         <v>267360000</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="71"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="21"/>
@@ -2727,11 +2743,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G6:G15"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
@@ -2746,6 +2757,413 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G6:G15"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="J19:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="70">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="23">
+        <v>225000</v>
+      </c>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="70"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="53">
+        <v>2</v>
+      </c>
+      <c r="K7" s="53">
+        <f>J7*12</f>
+        <v>24</v>
+      </c>
+      <c r="L7" s="23">
+        <v>455000</v>
+      </c>
+      <c r="M7" s="26">
+        <f t="shared" ref="M7:M18" si="0">K7*L7</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="70"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="23">
+        <v>235000</v>
+      </c>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="70"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="53">
+        <v>2</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" ref="K8:K18" si="1">J9*12</f>
+        <v>24</v>
+      </c>
+      <c r="L9" s="23">
+        <v>465000</v>
+      </c>
+      <c r="M9" s="26">
+        <f t="shared" si="0"/>
+        <v>11160000</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="70"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="23">
+        <v>245000</v>
+      </c>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="70"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="53">
+        <v>1</v>
+      </c>
+      <c r="K11" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="23">
+        <v>475000</v>
+      </c>
+      <c r="M11" s="26">
+        <f t="shared" si="0"/>
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="70"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="23">
+        <v>255000</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="70"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="53">
+        <v>2</v>
+      </c>
+      <c r="K13" s="53">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L13" s="23">
+        <v>485000</v>
+      </c>
+      <c r="M13" s="26">
+        <f t="shared" si="0"/>
+        <v>11640000</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="70"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="23">
+        <v>255000</v>
+      </c>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="70"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="53">
+        <v>1</v>
+      </c>
+      <c r="K15" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="23">
+        <v>485000</v>
+      </c>
+      <c r="M15" s="26">
+        <f t="shared" si="0"/>
+        <v>5820000</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F16" s="53">
+        <v>2</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="53">
+        <v>1</v>
+      </c>
+      <c r="K16" s="53">
+        <f>J16*24</f>
+        <v>24</v>
+      </c>
+      <c r="L16" s="23">
+        <v>550000</v>
+      </c>
+      <c r="M16" s="26">
+        <f>K16*L16</f>
+        <v>13200000</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F17" s="53">
+        <v>3</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="53">
+        <v>1</v>
+      </c>
+      <c r="K17" s="53">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L17" s="23">
+        <v>455000</v>
+      </c>
+      <c r="M17" s="26">
+        <f>K17*L17</f>
+        <v>5460000</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F18" s="53">
+        <v>4</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="53">
+        <v>2</v>
+      </c>
+      <c r="K18" s="53">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L18" s="23">
+        <v>455000</v>
+      </c>
+      <c r="M18" s="26">
+        <f>K18*L18</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="83">
+        <f>SUM(J6:J18)</f>
+        <v>12</v>
+      </c>
+      <c r="K19" s="62">
+        <f>SUM(K6:K18)</f>
+        <v>156</v>
+      </c>
+      <c r="L19" s="70"/>
+      <c r="M19" s="85">
+        <f>SUM(M6:M18)</f>
+        <v>74820000</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="88">
+        <v>0.3</v>
+      </c>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="33">
+        <f>M19*(1-J21)</f>
+        <v>52374000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="F6:F15"/>
+    <mergeCell ref="G6:G15"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KẾ TOÁN - THÁI HẰNG/Book1.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\HangWorkspace\KẾ TOÁN - THÁI HẰNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ TOÁN - THÁI HẰNG\KẾ TOÁN - THÁI HẰNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -600,6 +600,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,10 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,16 +669,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,20 +1645,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
@@ -1671,18 +1671,18 @@
       <c r="D4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="61" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="61"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="65"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="62" t="s">
         <v>48</v>
       </c>
@@ -1721,13 +1721,13 @@
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="72">
         <v>1</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="73" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -1765,9 +1765,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="21" t="s">
         <v>34</v>
       </c>
@@ -1803,9 +1803,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71" t="s">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1836,9 +1836,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
@@ -1872,9 +1872,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71" t="s">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -1905,9 +1905,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="71"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="21" t="s">
         <v>34</v>
       </c>
@@ -1943,9 +1943,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="21" t="s">
@@ -1976,9 +1976,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="21" t="s">
         <v>34</v>
       </c>
@@ -2014,9 +2014,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -2047,9 +2047,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="21" t="s">
         <v>34</v>
       </c>
@@ -2213,12 +2213,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="38">
         <f t="shared" ref="E19:L19" si="5">SUM(E6:E18)</f>
         <v>154</v>
@@ -2254,62 +2254,62 @@
       <c r="M19" s="30"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="50">
         <f>H19</f>
         <v>28250000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="73" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="2">
         <f>J19</f>
         <v>28140000</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="2">
         <f>(F21-F22)*38%</f>
         <v>41800</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="2">
         <f>10%*F21</f>
         <v>2825000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="51">
         <f>F24-F23</f>
         <v>2783200</v>
@@ -2317,12 +2317,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="G4:H4"/>
@@ -2339,6 +2333,12 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2360,23 +2360,23 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="72" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="21" t="s">
@@ -2384,25 +2384,25 @@
       </c>
     </row>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="70">
+      <c r="F6" s="72">
         <v>1</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="21" t="s">
@@ -2424,9 +2424,9 @@
       </c>
     </row>
     <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="70"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="21" t="s">
         <v>34</v>
       </c>
@@ -2446,9 +2446,9 @@
       </c>
     </row>
     <row r="8" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="70"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="71" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="73" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="21" t="s">
@@ -2470,9 +2470,9 @@
       </c>
     </row>
     <row r="9" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="70"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="21" t="s">
         <v>34</v>
       </c>
@@ -2492,9 +2492,9 @@
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="70"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="71" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="73" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="21" t="s">
@@ -2511,9 +2511,9 @@
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="70"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="21" t="s">
         <v>34</v>
       </c>
@@ -2533,9 +2533,9 @@
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="70"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="71" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="73" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="21" t="s">
@@ -2552,9 +2552,9 @@
       </c>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="70"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="21" t="s">
         <v>34</v>
       </c>
@@ -2574,9 +2574,9 @@
       </c>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="70"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="71" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="73" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="21" t="s">
@@ -2593,9 +2593,9 @@
       </c>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="70"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="21" t="s">
         <v>34</v>
       </c>
@@ -2699,13 +2699,13 @@
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="83">
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="84">
         <f>SUM(J6:J18)</f>
         <v>45</v>
       </c>
@@ -2713,29 +2713,29 @@
         <f>SUM(K6:K18)</f>
         <v>624</v>
       </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="85">
+      <c r="L19" s="72"/>
+      <c r="M19" s="74">
         <f>SUM(M6:M18)</f>
         <v>267360000</v>
       </c>
     </row>
     <row r="20" spans="6:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="84"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="62"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="85"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="21"/>
@@ -2743,6 +2743,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G6:G15"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="J19:J20"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
@@ -2757,11 +2762,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G6:G15"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2771,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2781,23 +2781,23 @@
   </cols>
   <sheetData>
     <row r="4" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="72" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="53" t="s">
@@ -2805,25 +2805,25 @@
       </c>
     </row>
     <row r="5" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="53" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F6" s="70">
+      <c r="F6" s="72">
         <v>1</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="53" t="s">
@@ -2837,9 +2837,9 @@
       <c r="M6" s="26"/>
     </row>
     <row r="7" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F7" s="70"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="53" t="s">
         <v>34</v>
       </c>
@@ -2854,14 +2854,14 @@
         <v>455000</v>
       </c>
       <c r="M7" s="26">
-        <f t="shared" ref="M7:M18" si="0">K7*L7</f>
+        <f t="shared" ref="M7:M15" si="0">K7*L7</f>
         <v>10920000</v>
       </c>
     </row>
     <row r="8" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F8" s="70"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="71" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="73" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="53" t="s">
@@ -2875,9 +2875,9 @@
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F9" s="70"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="53" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="53">
-        <f t="shared" ref="K8:K18" si="1">J9*12</f>
+        <f t="shared" ref="K9:K18" si="1">J9*12</f>
         <v>24</v>
       </c>
       <c r="L9" s="23">
@@ -2897,9 +2897,9 @@
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="70"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="71" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="73" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="53" t="s">
@@ -2913,9 +2913,9 @@
       <c r="M10" s="26"/>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="70"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="53" t="s">
         <v>34</v>
       </c>
@@ -2935,9 +2935,9 @@
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="70"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="71" t="s">
+      <c r="F12" s="72"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="73" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="53" t="s">
@@ -2951,9 +2951,9 @@
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="70"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="53" t="s">
         <v>34</v>
       </c>
@@ -2973,9 +2973,9 @@
       </c>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="70"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="71" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="73" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="53" t="s">
@@ -2989,9 +2989,9 @@
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="70"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="53" t="s">
         <v>34</v>
       </c>
@@ -3080,75 +3080,76 @@
         <v>34</v>
       </c>
       <c r="J18" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="53">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L18" s="23">
         <v>455000</v>
       </c>
       <c r="M18" s="26">
         <f>K18*L18</f>
-        <v>10920000</v>
+        <v>5460000</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="83">
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="84">
         <f>SUM(J6:J18)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="62">
         <f>SUM(K6:K18)</f>
-        <v>156</v>
-      </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="85">
+        <v>144</v>
+      </c>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74">
         <f>SUM(M6:M18)</f>
-        <v>74820000</v>
+        <v>69360000</v>
       </c>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="84"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="62"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="85"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="88">
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="86">
         <v>0.3</v>
       </c>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="88"/>
       <c r="M21" s="33">
         <f>M19*(1-J21)</f>
-        <v>52374000</v>
+        <v>48552000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="F6:F15"/>
@@ -3158,12 +3159,11 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
